--- a/SevenrMartSuperMarkets/src/test/resources/SevenrTestData.xlsx
+++ b/SevenrMartSuperMarkets/src/test/resources/SevenrTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9000" activeTab="3"/>
+    <workbookView windowWidth="23040" windowHeight="9000" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,8 @@
     <sheet name="ManageNewsPage" sheetId="3" r:id="rId3"/>
     <sheet name="managefooter" sheetId="4" r:id="rId4"/>
     <sheet name="managecategory" sheetId="5" r:id="rId5"/>
+    <sheet name="managecontact" sheetId="6" r:id="rId6"/>
+    <sheet name="subcategory" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="21">
   <si>
     <t>Username</t>
   </si>
@@ -48,10 +50,10 @@
     <t>Aadmin</t>
   </si>
   <si>
-    <t>Dilna</t>
-  </si>
-  <si>
-    <t>qwerj</t>
+    <t>Danita</t>
+  </si>
+  <si>
+    <t>qwerjw</t>
   </si>
   <si>
     <t>message</t>
@@ -78,7 +80,22 @@
     <t>Category</t>
   </si>
   <si>
-    <t>Food</t>
+    <t>fruit</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>asd@gmail.com</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>subcategory</t>
+  </si>
+  <si>
+    <t>manago</t>
   </si>
 </sst>
 </file>
@@ -100,6 +117,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="Calibri"/>
@@ -123,14 +148,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -590,7 +607,7 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -720,20 +737,23 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1282,45 +1302,45 @@
   </cols>
   <sheetData>
     <row r="1" ht="26" customHeight="1" spans="1:2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" ht="15.6" spans="1:2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" ht="15.6" spans="1:2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" ht="15.6" spans="1:2">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" ht="15.6" spans="1:3">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="4"/>
+      <c r="C5" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1340,18 +1360,18 @@
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" ht="15.6" spans="1:2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" ht="15.6" spans="1:2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1373,10 +1393,10 @@
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" ht="15.6" spans="1:2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1391,7 +1411,7 @@
   <sheetPr/>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1417,7 +1437,7 @@
       <c r="A2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C2">
@@ -1456,4 +1476,84 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="12.8888888888889"/>
+    <col min="2" max="2" width="15.5555555555556" customWidth="1"/>
+    <col min="3" max="3" width="21.5555555555556" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>12345675890</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="asd@gmail.com"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/SevenrMartSuperMarkets/src/test/resources/SevenrTestData.xlsx
+++ b/SevenrMartSuperMarkets/src/test/resources/SevenrTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9000" activeTab="6"/>
+    <workbookView windowWidth="23040" windowHeight="9000" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
   <si>
     <t>Username</t>
   </si>
@@ -86,7 +86,16 @@
     <t>phone</t>
   </si>
   <si>
+    <t>DeliveryTime</t>
+  </si>
+  <si>
+    <t>DeliveryCharge</t>
+  </si>
+  <si>
     <t>asd@gmail.com</t>
+  </si>
+  <si>
+    <t>5 pm</t>
   </si>
   <si>
     <t>category</t>
@@ -108,7 +117,7 @@
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,12 +126,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF6A3E3E"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF2A00FF"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -607,153 +628,159 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1302,45 +1329,45 @@
   </cols>
   <sheetData>
     <row r="1" ht="26" customHeight="1" spans="1:2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" ht="15.6" spans="1:2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" ht="15.6" spans="1:2">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" ht="15.6" spans="1:2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="5" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" ht="15.6" spans="1:3">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="5"/>
+      <c r="C5" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1360,18 +1387,18 @@
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" ht="15.6" spans="1:2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" ht="15.6" spans="1:2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="6" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1393,10 +1420,10 @@
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" ht="15.6" spans="1:2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1437,7 +1464,7 @@
       <c r="A2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C2">
@@ -1481,20 +1508,22 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="12.8888888888889"/>
     <col min="2" max="2" width="15.5555555555556" customWidth="1"/>
     <col min="3" max="3" width="21.5555555555556" customWidth="1"/>
+    <col min="4" max="4" width="18.4444444444444" customWidth="1"/>
+    <col min="5" max="5" width="17.8888888888889" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -1504,16 +1533,28 @@
       <c r="C1" t="s">
         <v>9</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>12345675890</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>17</v>
+      <c r="B2" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="3">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1530,7 +1571,7 @@
   <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1538,10 +1579,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1549,7 +1590,7 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
